--- a/TheEngine/V1.0/MasterParameters.xlsx
+++ b/TheEngine/V1.0/MasterParameters.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/TheEngine/V1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF921329-0CC6-AE40-9A79-1AACDA85EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2075E7E0-331A-7F42-9446-252A251BDA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21540" yWindow="500" windowWidth="19820" windowHeight="24060" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="19860" yWindow="500" windowWidth="19820" windowHeight="24060" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Oftarget</t>
   </si>
@@ -123,6 +124,18 @@
   </si>
   <si>
     <t>elementCountFuel</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>*Things to Note:</t>
+  </si>
+  <si>
+    <t>Testing2</t>
+  </si>
+  <si>
+    <t>MatLab will start pulling from column which starts populating data from lowest row</t>
   </si>
 </sst>
 </file>
@@ -483,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EE674D-90FE-AD48-84C7-5AAF538DFADD}">
-  <dimension ref="C3:D38"/>
+  <dimension ref="C4:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,94 +507,92 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -589,129 +600,155 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>293</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>0.15</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>1.65</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>0.85</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>23</v>
-      </c>
-      <c r="D33">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>24</v>
       </c>
       <c r="D34">
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>25</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>0.26369999999999999</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>26</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.1797</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>27</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>28</v>
       </c>
       <c r="D38">
         <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
